--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Itgb2</t>
   </si>
   <si>
     <t>Thy1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>87.55870721002481</v>
+        <v>63.45359300000001</v>
       </c>
       <c r="H2">
-        <v>87.55870721002481</v>
+        <v>190.360779</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>80.61697467677691</v>
+        <v>1.114886</v>
       </c>
       <c r="N2">
-        <v>80.61697467677691</v>
+        <v>3.344658</v>
       </c>
       <c r="O2">
-        <v>0.7590953472975679</v>
+        <v>0.01026455462504307</v>
       </c>
       <c r="P2">
-        <v>0.7590953472975679</v>
+        <v>0.01026455462504307</v>
       </c>
       <c r="Q2">
-        <v>7058.718081881893</v>
+        <v>70.743522485398</v>
       </c>
       <c r="R2">
-        <v>7058.718081881893</v>
+        <v>636.691702368582</v>
       </c>
       <c r="S2">
-        <v>0.7590953472975679</v>
+        <v>0.003831819295918509</v>
       </c>
       <c r="T2">
-        <v>0.7590953472975679</v>
+        <v>0.003831819295918508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>87.55870721002481</v>
+        <v>63.45359300000001</v>
       </c>
       <c r="H3">
-        <v>87.55870721002481</v>
+        <v>190.360779</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.5844069596393</v>
+        <v>80.666326</v>
       </c>
       <c r="N3">
-        <v>25.5844069596393</v>
+        <v>241.998978</v>
       </c>
       <c r="O3">
-        <v>0.2409046527024321</v>
+        <v>0.7426803364904859</v>
       </c>
       <c r="P3">
-        <v>0.2409046527024321</v>
+        <v>0.7426803364904858</v>
       </c>
       <c r="Q3">
-        <v>2240.137598121178</v>
+        <v>5118.568218809318</v>
       </c>
       <c r="R3">
-        <v>2240.137598121178</v>
+        <v>46067.11396928386</v>
       </c>
       <c r="S3">
-        <v>0.2409046527024321</v>
+        <v>0.2772469871337992</v>
       </c>
       <c r="T3">
-        <v>0.2409046527024321</v>
+        <v>0.2772469871337992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="H4">
+        <v>190.360779</v>
+      </c>
+      <c r="I4">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="J4">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.6900326666666666</v>
+      </c>
+      <c r="N4">
+        <v>2.070098</v>
+      </c>
+      <c r="O4">
+        <v>0.006353006495788928</v>
+      </c>
+      <c r="P4">
+        <v>0.006353006495788927</v>
+      </c>
+      <c r="Q4">
+        <v>43.78505198737133</v>
+      </c>
+      <c r="R4">
+        <v>394.065467886342</v>
+      </c>
+      <c r="S4">
+        <v>0.002371615113067558</v>
+      </c>
+      <c r="T4">
+        <v>0.002371615113067558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="H5">
+        <v>190.360779</v>
+      </c>
+      <c r="I5">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="J5">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>26.14389166666666</v>
+      </c>
+      <c r="N5">
+        <v>78.431675</v>
+      </c>
+      <c r="O5">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="P5">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="Q5">
+        <v>1658.923861252758</v>
+      </c>
+      <c r="R5">
+        <v>14930.31475127483</v>
+      </c>
+      <c r="S5">
+        <v>0.08985552653700597</v>
+      </c>
+      <c r="T5">
+        <v>0.08985552653700596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.155386</v>
+      </c>
+      <c r="I6">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="J6">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.114886</v>
+      </c>
+      <c r="N6">
+        <v>3.344658</v>
+      </c>
+      <c r="O6">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="P6">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="Q6">
+        <v>0.4293745586653334</v>
+      </c>
+      <c r="R6">
+        <v>3.864371027988</v>
+      </c>
+      <c r="S6">
+        <v>2.325705112308929E-05</v>
+      </c>
+      <c r="T6">
+        <v>2.325705112308929E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.155386</v>
+      </c>
+      <c r="I7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="J7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>80.666326</v>
+      </c>
+      <c r="N7">
+        <v>241.998978</v>
+      </c>
+      <c r="O7">
+        <v>0.7426803364904859</v>
+      </c>
+      <c r="P7">
+        <v>0.7426803364904858</v>
+      </c>
+      <c r="Q7">
+        <v>31.06691457727867</v>
+      </c>
+      <c r="R7">
+        <v>279.602231195508</v>
+      </c>
+      <c r="S7">
+        <v>0.001682737847361781</v>
+      </c>
+      <c r="T7">
+        <v>0.001682737847361781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.155386</v>
+      </c>
+      <c r="I8">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="J8">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.6900326666666666</v>
+      </c>
+      <c r="N8">
+        <v>2.070098</v>
+      </c>
+      <c r="O8">
+        <v>0.006353006495788928</v>
+      </c>
+      <c r="P8">
+        <v>0.006353006495788927</v>
+      </c>
+      <c r="Q8">
+        <v>0.2657513608697777</v>
+      </c>
+      <c r="R8">
+        <v>2.391762247828</v>
+      </c>
+      <c r="S8">
+        <v>1.439440893980936E-05</v>
+      </c>
+      <c r="T8">
+        <v>1.439440893980936E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.155386</v>
+      </c>
+      <c r="I9">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="J9">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.14389166666666</v>
+      </c>
+      <c r="N9">
+        <v>78.431675</v>
+      </c>
+      <c r="O9">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="P9">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="Q9">
+        <v>10.06876213906111</v>
+      </c>
+      <c r="R9">
+        <v>90.61885925155001</v>
+      </c>
+      <c r="S9">
+        <v>0.0005453739889532874</v>
+      </c>
+      <c r="T9">
+        <v>0.0005453739889532874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>106.117587</v>
+      </c>
+      <c r="H10">
+        <v>318.352761</v>
+      </c>
+      <c r="I10">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="J10">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.114886</v>
+      </c>
+      <c r="N10">
+        <v>3.344658</v>
+      </c>
+      <c r="O10">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="P10">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="Q10">
+        <v>118.309012100082</v>
+      </c>
+      <c r="R10">
+        <v>1064.781108900738</v>
+      </c>
+      <c r="S10">
+        <v>0.006408201620716909</v>
+      </c>
+      <c r="T10">
+        <v>0.006408201620716907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>106.117587</v>
+      </c>
+      <c r="H11">
+        <v>318.352761</v>
+      </c>
+      <c r="I11">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="J11">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>80.666326</v>
+      </c>
+      <c r="N11">
+        <v>241.998978</v>
+      </c>
+      <c r="O11">
+        <v>0.7426803364904859</v>
+      </c>
+      <c r="P11">
+        <v>0.7426803364904858</v>
+      </c>
+      <c r="Q11">
+        <v>8560.115867275363</v>
+      </c>
+      <c r="R11">
+        <v>77041.04280547825</v>
+      </c>
+      <c r="S11">
+        <v>0.4636582404034839</v>
+      </c>
+      <c r="T11">
+        <v>0.4636582404034838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>106.117587</v>
+      </c>
+      <c r="H12">
+        <v>318.352761</v>
+      </c>
+      <c r="I12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="J12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6900326666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.070098</v>
+      </c>
+      <c r="O12">
+        <v>0.006353006495788928</v>
+      </c>
+      <c r="P12">
+        <v>0.006353006495788927</v>
+      </c>
+      <c r="Q12">
+        <v>73.22460153784199</v>
+      </c>
+      <c r="R12">
+        <v>659.0214138405779</v>
+      </c>
+      <c r="S12">
+        <v>0.003966206816554288</v>
+      </c>
+      <c r="T12">
+        <v>0.003966206816554287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>106.117587</v>
+      </c>
+      <c r="H13">
+        <v>318.352761</v>
+      </c>
+      <c r="I13">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="J13">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.14389166666666</v>
+      </c>
+      <c r="N13">
+        <v>78.431675</v>
+      </c>
+      <c r="O13">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="P13">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="Q13">
+        <v>2774.326698456075</v>
+      </c>
+      <c r="R13">
+        <v>24968.94028610467</v>
+      </c>
+      <c r="S13">
+        <v>0.1502712644612818</v>
+      </c>
+      <c r="T13">
+        <v>0.1502712644612818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.021141</v>
+      </c>
+      <c r="H14">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="J14">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.114886</v>
+      </c>
+      <c r="N14">
+        <v>3.344658</v>
+      </c>
+      <c r="O14">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="P14">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="Q14">
+        <v>0.02356980492600001</v>
+      </c>
+      <c r="R14">
+        <v>0.212128244334</v>
+      </c>
+      <c r="S14">
+        <v>1.276657284560911E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.27665728456091E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.021141</v>
+      </c>
+      <c r="H15">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="J15">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>80.666326</v>
+      </c>
+      <c r="N15">
+        <v>241.998978</v>
+      </c>
+      <c r="O15">
+        <v>0.7426803364904859</v>
+      </c>
+      <c r="P15">
+        <v>0.7426803364904858</v>
+      </c>
+      <c r="Q15">
+        <v>1.705366797966</v>
+      </c>
+      <c r="R15">
+        <v>15.348301181694</v>
+      </c>
+      <c r="S15">
+        <v>9.237110584101441E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.237110584101439E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.021141</v>
+      </c>
+      <c r="H16">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="J16">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.6900326666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.070098</v>
+      </c>
+      <c r="O16">
+        <v>0.006353006495788928</v>
+      </c>
+      <c r="P16">
+        <v>0.006353006495788927</v>
+      </c>
+      <c r="Q16">
+        <v>0.014587980606</v>
+      </c>
+      <c r="R16">
+        <v>0.131291825454</v>
+      </c>
+      <c r="S16">
+        <v>7.901572272725557E-07</v>
+      </c>
+      <c r="T16">
+        <v>7.901572272725556E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.021141</v>
+      </c>
+      <c r="H17">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="J17">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.14389166666666</v>
+      </c>
+      <c r="N17">
+        <v>78.431675</v>
+      </c>
+      <c r="O17">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="P17">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="Q17">
+        <v>0.552708013725</v>
+      </c>
+      <c r="R17">
+        <v>4.974372123525001</v>
+      </c>
+      <c r="S17">
+        <v>2.993740144106329E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.993740144106328E-05</v>
       </c>
     </row>
   </sheetData>
